--- a/Hindamine/Linda andmed/property_71401_001_1256 (2).xlsx
+++ b/Hindamine/Linda andmed/property_71401_001_1256 (2).xlsx
@@ -1,21 +1,271 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opilane\Desktop\Andmetarkus,git\Andmetarkus\Timber AS\Timber-AS\Hindamine\Linda andmed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CCFBD4-7FD6-49FE-BAC7-D56AABE71CCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="property" sheetId="1" r:id="rId1"/>
     <sheet name="stands" sheetId="2" r:id="rId2"/>
     <sheet name="metadata" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+  <si>
+    <t>Cadastral</t>
+  </si>
+  <si>
+    <t>Total volume (m³)</t>
+  </si>
+  <si>
+    <t>Extra volume (m³)</t>
+  </si>
+  <si>
+    <t>Total stand volume (m³)</t>
+  </si>
+  <si>
+    <t>Pine volume (m³)</t>
+  </si>
+  <si>
+    <t>Spruce volume (m³)</t>
+  </si>
+  <si>
+    <t>Birch volume (m³)</t>
+  </si>
+  <si>
+    <t>Other deciduous volume (m³)</t>
+  </si>
+  <si>
+    <t>Log (m³)</t>
+  </si>
+  <si>
+    <t>Log pine (m³)</t>
+  </si>
+  <si>
+    <t>Log spruce (m³)</t>
+  </si>
+  <si>
+    <t>Log birch (m³)</t>
+  </si>
+  <si>
+    <t>Log other deciduous (m³)</t>
+  </si>
+  <si>
+    <t>Fiber (m³)</t>
+  </si>
+  <si>
+    <t>Fiber pine (m³)</t>
+  </si>
+  <si>
+    <t>Fiber spruce (m³)</t>
+  </si>
+  <si>
+    <t>Fiber birch (m³)</t>
+  </si>
+  <si>
+    <t>Fiber other deciduous (m³)</t>
+  </si>
+  <si>
+    <t>Stem count (pcs)</t>
+  </si>
+  <si>
+    <t>Pine stem count (pcs)</t>
+  </si>
+  <si>
+    <t>Spruce stem count (pcs)</t>
+  </si>
+  <si>
+    <t>Birch stem count (pcs)</t>
+  </si>
+  <si>
+    <t>Other deciduous stem count (pcs)</t>
+  </si>
+  <si>
+    <t>Bark beetle damage area (m²)</t>
+  </si>
+  <si>
+    <t>71401:001:1256</t>
+  </si>
+  <si>
+    <t>Stand</t>
+  </si>
+  <si>
+    <t>Total area (ha)</t>
+  </si>
+  <si>
+    <t>Field Measurement</t>
+  </si>
+  <si>
+    <t>Main species</t>
+  </si>
+  <si>
+    <t>Height (m)</t>
+  </si>
+  <si>
+    <t>Pine height (m)</t>
+  </si>
+  <si>
+    <t>Spruce height (m)</t>
+  </si>
+  <si>
+    <t>Birch height (m)</t>
+  </si>
+  <si>
+    <t>Other deciduous (m)</t>
+  </si>
+  <si>
+    <t>Basal area (m²/ha)</t>
+  </si>
+  <si>
+    <t>Pine basal area (m²/ha)</t>
+  </si>
+  <si>
+    <t>Spruce basal area (m²/ha)</t>
+  </si>
+  <si>
+    <t>Birch basal area (m²/ha)</t>
+  </si>
+  <si>
+    <t>Other deciduous basal area (m²/ha)</t>
+  </si>
+  <si>
+    <t>Diameter (cm)</t>
+  </si>
+  <si>
+    <t>Pine diameter (cm)</t>
+  </si>
+  <si>
+    <t>Spruce diameter (cm)</t>
+  </si>
+  <si>
+    <t>Birch diameter (cm)</t>
+  </si>
+  <si>
+    <t>Other deciduous diameter (cm)</t>
+  </si>
+  <si>
+    <t>Log (m³/ha)</t>
+  </si>
+  <si>
+    <t>Log pine (m³/ha)</t>
+  </si>
+  <si>
+    <t>Log spruce (m³/ha)</t>
+  </si>
+  <si>
+    <t>Log birch (m³/ha)</t>
+  </si>
+  <si>
+    <t>Log other deciduous (m³/ha)</t>
+  </si>
+  <si>
+    <t>Fiber (m³/ha)</t>
+  </si>
+  <si>
+    <t>Fiber pine (m³/ha)</t>
+  </si>
+  <si>
+    <t>Fiber spruce (m³/ha)</t>
+  </si>
+  <si>
+    <t>Fiber birch (m³/ha)</t>
+  </si>
+  <si>
+    <t>Fiber other deciduous (m³/ha)</t>
+  </si>
+  <si>
+    <t>Total (m³/ha)</t>
+  </si>
+  <si>
+    <t>Pine (m³/ha)</t>
+  </si>
+  <si>
+    <t>Spruce (m³/ha)</t>
+  </si>
+  <si>
+    <t>Birch (m³/ha)</t>
+  </si>
+  <si>
+    <t>Other deciduous (m³/ha)</t>
+  </si>
+  <si>
+    <t>Stem count (pcs/ha)</t>
+  </si>
+  <si>
+    <t>Pine stem count (pcs/ha)</t>
+  </si>
+  <si>
+    <t>Spruce stem count (pcs/ha)</t>
+  </si>
+  <si>
+    <t>Birch stem count (pcs/ha)</t>
+  </si>
+  <si>
+    <t>Other deciduous stem count (pcs/ha)</t>
+  </si>
+  <si>
+    <t>Final felling recommended</t>
+  </si>
+  <si>
+    <t>Thinning recommended</t>
+  </si>
+  <si>
+    <t>Thinning urgency</t>
+  </si>
+  <si>
+    <t>Thinning potential (m²/ha)</t>
+  </si>
+  <si>
+    <t>Thinning potential (%)</t>
+  </si>
+  <si>
+    <t>pine</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>CC inventory date</t>
+  </si>
+  <si>
+    <t>Stand borders date</t>
+  </si>
+  <si>
+    <t>Lidar scan date</t>
+  </si>
+  <si>
+    <t>Most recent satellite image</t>
+  </si>
+  <si>
+    <t>Most recent measurement</t>
+  </si>
+  <si>
+    <t>CC inventory version ID</t>
+  </si>
+  <si>
+    <t>20250401_thin</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -54,6 +304,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -378,89 +636,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="25.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Cadastral</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Total volume (m³)</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Extra volume (m³)</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Total stand volume (m³)</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Pine volume (m³)</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Spruce volume (m³)</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Birch volume (m³)</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Other deciduous volume (m³)</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Log (m³)</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Log pine (m³)</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Log spruce (m³)</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Log birch (m³)</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Log other deciduous (m³)</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Fiber (m³)</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Fiber pine (m³)</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Fiber spruce (m³)</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>Fiber birch (m³)</v>
-      </c>
-      <c r="R1" t="str">
-        <v>Fiber other deciduous (m³)</v>
-      </c>
-      <c r="S1" t="str">
-        <v>Stem count (pcs)</v>
-      </c>
-      <c r="T1" t="str">
-        <v>Pine stem count (pcs)</v>
-      </c>
-      <c r="U1" t="str">
-        <v>Spruce stem count (pcs)</v>
-      </c>
-      <c r="V1" t="str">
-        <v>Birch stem count (pcs)</v>
-      </c>
-      <c r="W1" t="str">
-        <v>Other deciduous stem count (pcs)</v>
-      </c>
-      <c r="X1" t="str">
-        <v>Bark beetle damage area (m²)</v>
+    <row r="1" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>71401:001:1256</v>
+    <row r="2" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>282</v>
@@ -533,234 +797,239 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:X2"/>
+    <ignoredError sqref="A1:X2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BN5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="16.9140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Cadastral</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Stand</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Total area (ha)</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Field Measurement</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Main species</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Height (m)</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Pine height (m)</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Spruce height (m)</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Birch height (m)</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Other deciduous (m)</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Basal area (m²/ha)</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Pine basal area (m²/ha)</v>
-      </c>
-      <c r="M1" t="str">
-        <v>Spruce basal area (m²/ha)</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Birch basal area (m²/ha)</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Other deciduous basal area (m²/ha)</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Diameter (cm)</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>Pine diameter (cm)</v>
-      </c>
-      <c r="R1" t="str">
-        <v>Spruce diameter (cm)</v>
-      </c>
-      <c r="S1" t="str">
-        <v>Birch diameter (cm)</v>
-      </c>
-      <c r="T1" t="str">
-        <v>Other deciduous diameter (cm)</v>
-      </c>
-      <c r="U1" t="str">
-        <v>Log (m³)</v>
-      </c>
-      <c r="V1" t="str">
-        <v>Log pine (m³)</v>
-      </c>
-      <c r="W1" t="str">
-        <v>Log spruce (m³)</v>
-      </c>
-      <c r="X1" t="str">
-        <v>Log birch (m³)</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>Log other deciduous (m³)</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>Fiber (m³)</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>Fiber pine (m³)</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>Fiber spruce (m³)</v>
-      </c>
-      <c r="AC1" t="str">
-        <v>Fiber birch (m³)</v>
-      </c>
-      <c r="AD1" t="str">
-        <v>Fiber other deciduous (m³)</v>
-      </c>
-      <c r="AE1" t="str">
-        <v>Total volume (m³)</v>
-      </c>
-      <c r="AF1" t="str">
-        <v>Pine volume (m³)</v>
-      </c>
-      <c r="AG1" t="str">
-        <v>Spruce volume (m³)</v>
-      </c>
-      <c r="AH1" t="str">
-        <v>Birch volume (m³)</v>
-      </c>
-      <c r="AI1" t="str">
-        <v>Other deciduous volume (m³)</v>
-      </c>
-      <c r="AJ1" t="str">
-        <v>Log (m³/ha)</v>
-      </c>
-      <c r="AK1" t="str">
-        <v>Log pine (m³/ha)</v>
-      </c>
-      <c r="AL1" t="str">
-        <v>Log spruce (m³/ha)</v>
-      </c>
-      <c r="AM1" t="str">
-        <v>Log birch (m³/ha)</v>
-      </c>
-      <c r="AN1" t="str">
-        <v>Log other deciduous (m³/ha)</v>
-      </c>
-      <c r="AO1" t="str">
-        <v>Fiber (m³/ha)</v>
-      </c>
-      <c r="AP1" t="str">
-        <v>Fiber pine (m³/ha)</v>
-      </c>
-      <c r="AQ1" t="str">
-        <v>Fiber spruce (m³/ha)</v>
-      </c>
-      <c r="AR1" t="str">
-        <v>Fiber birch (m³/ha)</v>
-      </c>
-      <c r="AS1" t="str">
-        <v>Fiber other deciduous (m³/ha)</v>
-      </c>
-      <c r="AT1" t="str">
-        <v>Total (m³/ha)</v>
-      </c>
-      <c r="AU1" t="str">
-        <v>Pine (m³/ha)</v>
-      </c>
-      <c r="AV1" t="str">
-        <v>Spruce (m³/ha)</v>
-      </c>
-      <c r="AW1" t="str">
-        <v>Birch (m³/ha)</v>
-      </c>
-      <c r="AX1" t="str">
-        <v>Other deciduous (m³/ha)</v>
-      </c>
-      <c r="AY1" t="str">
-        <v>Stem count (pcs/ha)</v>
-      </c>
-      <c r="AZ1" t="str">
-        <v>Pine stem count (pcs/ha)</v>
-      </c>
-      <c r="BA1" t="str">
-        <v>Spruce stem count (pcs/ha)</v>
-      </c>
-      <c r="BB1" t="str">
-        <v>Birch stem count (pcs/ha)</v>
-      </c>
-      <c r="BC1" t="str">
-        <v>Other deciduous stem count (pcs/ha)</v>
-      </c>
-      <c r="BD1" t="str">
-        <v>Stem count (pcs)</v>
-      </c>
-      <c r="BE1" t="str">
-        <v>Pine stem count (pcs)</v>
-      </c>
-      <c r="BF1" t="str">
-        <v>Spruce stem count (pcs)</v>
-      </c>
-      <c r="BG1" t="str">
-        <v>Birch stem count (pcs)</v>
-      </c>
-      <c r="BH1" t="str">
-        <v>Other deciduous stem count (pcs)</v>
-      </c>
-      <c r="BI1" t="str">
-        <v>Bark beetle damage area (m²)</v>
-      </c>
-      <c r="BJ1" t="str">
-        <v>Final felling recommended</v>
-      </c>
-      <c r="BK1" t="str">
-        <v>Thinning recommended</v>
-      </c>
-      <c r="BL1" t="str">
-        <v>Thinning urgency</v>
-      </c>
-      <c r="BM1" t="str">
-        <v>Thinning potential (m²/ha)</v>
-      </c>
-      <c r="BN1" t="str">
-        <v>Thinning potential (%)</v>
+    <row r="1" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>71401:001:1256</v>
+    <row r="2" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D2" s="2">
         <v>43443</v>
       </c>
-      <c r="E2" t="str">
-        <v>pine</v>
+      <c r="E2" t="s">
+        <v>69</v>
       </c>
       <c r="F2" s="1">
         <v>15.8</v>
@@ -927,11 +1196,11 @@
       <c r="BH2" s="1">
         <v>0</v>
       </c>
-      <c r="BJ2" t="str">
-        <v>no</v>
-      </c>
-      <c r="BK2" t="str">
-        <v>no</v>
+      <c r="BJ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>70</v>
       </c>
       <c r="BL2" s="1">
         <v>0</v>
@@ -940,9 +1209,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>71401:001:1256</v>
+    <row r="3" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -953,14 +1222,14 @@
       <c r="D3" s="2">
         <v>43443</v>
       </c>
-      <c r="E3" t="str">
-        <v>pine</v>
+      <c r="E3" t="s">
+        <v>69</v>
       </c>
       <c r="F3" s="1">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -1121,11 +1390,11 @@
       <c r="BH3" s="1">
         <v>0</v>
       </c>
-      <c r="BJ3" t="str">
-        <v>no</v>
-      </c>
-      <c r="BK3" t="str">
-        <v>no</v>
+      <c r="BJ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>70</v>
       </c>
       <c r="BL3" s="1">
         <v>0</v>
@@ -1134,9 +1403,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>71401:001:1256</v>
+    <row r="4" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -1147,8 +1416,8 @@
       <c r="D4" s="2">
         <v>43443</v>
       </c>
-      <c r="E4" t="str">
-        <v>none</v>
+      <c r="E4" t="s">
+        <v>71</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1315,11 +1584,11 @@
       <c r="BH4" s="1">
         <v>0</v>
       </c>
-      <c r="BJ4" t="str">
-        <v>no</v>
-      </c>
-      <c r="BK4" t="str">
-        <v>no</v>
+      <c r="BJ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>70</v>
       </c>
       <c r="BL4" s="1">
         <v>0</v>
@@ -1328,9 +1597,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>71401:001:1256</v>
+    <row r="5" spans="1:66" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -1341,8 +1610,8 @@
       <c r="D5" s="2">
         <v>43443</v>
       </c>
-      <c r="E5" t="str">
-        <v>pine</v>
+      <c r="E5" t="s">
+        <v>69</v>
       </c>
       <c r="F5" s="1">
         <v>13.7</v>
@@ -1360,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="L5" s="1">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1509,11 +1778,11 @@
       <c r="BH5" s="1">
         <v>0</v>
       </c>
-      <c r="BJ5" t="str">
-        <v>no</v>
-      </c>
-      <c r="BK5" t="str">
-        <v>no</v>
+      <c r="BJ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>70</v>
       </c>
       <c r="BL5" s="1">
         <v>0</v>
@@ -1523,74 +1792,77 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BN5"/>
+    <ignoredError sqref="A1:BN5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="30"/>
-    <col min="2" max="2" customWidth="1" width="20"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>CC inventory date</v>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>72</v>
       </c>
       <c r="B1" s="2">
         <v>45687</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Stand borders date</v>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="2">
         <v>45653</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Lidar scan date</v>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>74</v>
       </c>
       <c r="B3" s="2">
         <v>45077</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Most recent satellite image</v>
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>75</v>
       </c>
       <c r="B4" s="2">
         <v>45535</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Most recent measurement</v>
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>76</v>
       </c>
       <c r="B5" s="2">
         <v>43443</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>CC inventory version ID</v>
-      </c>
-      <c r="B6" t="str">
-        <v>20250401_thin</v>
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B6"/>
+    <ignoredError sqref="A1:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>